--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/02. Excel - Advanced Formulas and Functions/Material/Ex_Files_Excel_Advanced_Formulas_Functions/Exercise Files/Ch-10/10-Information.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/02. Excel - Advanced Formulas and Functions/Material/Ex_Files_Excel_Advanced_Formulas_Functions/Exercise Files/Ch-10/10-Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Taylor\Pictures\Advanced Formulas and Functions\Exercise Files\Ch-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\02. Excel - Advanced Formulas and Functions\Material\Ex_Files_Excel_Advanced_Formulas_Functions\Exercise Files\Ch-10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71203A48-344B-424C-8BF2-86F2E6D7D7FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAC549C-25EA-4464-922C-CEC1D5F84ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{42E94F38-8524-4B90-9BCC-D907E8A22E14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{42E94F38-8524-4B90-9BCC-D907E8A22E14}"/>
   </bookViews>
   <sheets>
     <sheet name="CELL-INFO" sheetId="2" r:id="rId1"/>
@@ -93,6 +93,28 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
@@ -446,20 +468,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0%;[Red]\-0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -649,11 +671,11 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -661,90 +683,90 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,14 +774,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,31 +790,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -804,15 +826,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{48ADD6A3-6598-4657-A0ED-07A0858F5368}"/>
-    <cellStyle name="Currency" xfId="6" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="2" xr:uid="{710FCAAF-F24A-4B4D-860F-43D8ED452BE2}"/>
+    <cellStyle name="Millares" xfId="5" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="6" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A8D89877-80BB-4F17-8CFA-49AB67D4052F}"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{7F98495D-5ABA-4C12-8F79-958523D1A943}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -836,7 +866,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
+      <xdr:colOff>65314</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>18236</xdr:rowOff>
     </xdr:to>
@@ -885,8 +915,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>883417</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>154912</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -901,8 +931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1896898"/>
-          <a:ext cx="8042868" cy="2495069"/>
+          <a:off x="0" y="1896200"/>
+          <a:ext cx="7823967" cy="2732950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1904,169 +1934,287 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.61328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.84375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" style="2"/>
-    <col min="7" max="7" width="11.15234375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.15234375" style="2"/>
-    <col min="9" max="9" width="12.69140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.15234375" style="2"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="235.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="11.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="67">
         <v>567.79999999999995</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C1" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">CELL(B1,$A$1)</f>
+        <v>$A$1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">CELL(B2,$A$1)</f>
+        <v>1</v>
+      </c>
       <c r="E2" s="65">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">CELL("formato",E2)</f>
+        <v>D7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">CELL(B3,$A$1)</f>
+        <v>0</v>
+      </c>
       <c r="E3" s="63">
         <v>43861</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">CELL("formato",E3)</f>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">CELL(B4,$A$1)</f>
+        <v>567.79999999999995</v>
+      </c>
       <c r="E4" s="59">
         <v>43510</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">CELL("formato",E4)</f>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">CELL(B5,$A$1)</f>
+        <v>Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\02. Excel - Advanced Formulas and Functions\Material\Ex_Files_Excel_Advanced_Formulas_Functions\Exercise Files\Ch-10\[10-Information.xlsx]CELL-INFO</v>
+      </c>
       <c r="E5" s="1">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">CELL("formato",E5)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">CELL(B6,$A$1)</f>
+        <v>.2</v>
+      </c>
       <c r="E6" s="60">
         <v>3456.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">CELL("formato",E6)</f>
+        <v>.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">CELL(B7,$A$1)</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="61">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">CELL("formato",E7)</f>
+        <v>.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">CELL(B8,$A$1)</f>
+        <v/>
+      </c>
       <c r="E8" s="62">
         <v>987.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">CELL("formato",E8)</f>
+        <v>.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" s="2" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">CELL(B9,$A$1)</f>
+        <v>1</v>
+      </c>
       <c r="E9" s="64">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">CELL("formato",E9)</f>
+        <v>.2-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="2" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">CELL(B10,$A$1)</f>
+        <v>1</v>
+      </c>
       <c r="E10" s="66" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">CELL("formato",E10)</f>
+        <v>.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">CELL(B11,$A$1)</f>
+        <v>v</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="2" cm="1">
+        <f t="array" aca="1" ref="C12:D12" ca="1">CELL(B12,$A$1)</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="2" t="str">
+        <f ca="1">INFO("DIRECTORIO")</f>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="str">
+        <f t="shared" ref="C16:C21" ca="1" si="0">INFO("DIRECTORIO")</f>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C:\Users\leste\Documents\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C:\Users\leste\Documents\</v>
       </c>
     </row>
   </sheetData>
@@ -2081,22 +2229,29 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.23046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.53515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.84375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.23046875" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.84375" style="2"/>
-    <col min="8" max="8" width="12.84375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.84375" style="2"/>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <f>SUM(A2:A11)</f>
+        <v>16555</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
@@ -2113,82 +2268,298 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3243</v>
       </c>
+      <c r="B2" s="2" t="b">
+        <f>ISTEXT(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <f>ISNUMBER(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <f>ISNONTEXT(A2)</f>
+        <v>1</v>
+      </c>
       <c r="G2" s="2">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <f>IF(ISBLANK(G2),99,G2)</f>
+        <v>217</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <f>ISODD(H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2337</v>
       </c>
+      <c r="B3" s="2" t="b">
+        <f t="shared" ref="B3:B11" si="0">ISTEXT(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <f t="shared" ref="C3:C11" si="1">ISNUMBER(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <f t="shared" ref="D3:D11" si="2">ISNONTEXT(A3)</f>
+        <v>1</v>
+      </c>
       <c r="G3" s="2">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H13" si="3">IF(ISBLANK(G3),99,G3)</f>
+        <v>632</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <f t="shared" ref="I3:I13" si="4">ISODD(H3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="2">
         <v>543</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2762</v>
       </c>
+      <c r="B7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G7" s="2">
         <v>-263</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>-263</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2942</v>
       </c>
+      <c r="B8" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>-842</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>-842</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2482</v>
       </c>
+      <c r="B10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="G10" s="2">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="I10" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2789</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="2">
         <v>882</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>882</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" s="2">
         <v>203</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2203,23 +2574,25 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.69140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.765625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.69140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.15234375" style="2"/>
+    <col min="1" max="1" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2618,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -2280,7 +2653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -2311,7 +2684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -2328,8 +2701,7 @@
         <v>130</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
@@ -2341,14 +2713,14 @@
       </c>
       <c r="H4" s="7">
         <f>SUM(B4:G4)</f>
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="I4" s="7">
         <f>AVERAGE(B4:G4)</f>
-        <v>61.666666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -2366,20 +2738,20 @@
       </c>
       <c r="E5" s="7">
         <f>E4+D5</f>
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7">
         <f>F4+E5</f>
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7">
         <f>G4+F5</f>
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2388,7 +2760,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -2418,12 +2790,12 @@
         <v>0.30258554234867607</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:G9" si="2">C3/B3-1</f>
+        <f t="shared" ref="C8:G8" si="2">C3/B3-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="D8" s="9">
@@ -2448,7 +2820,7 @@
         <v>0.28473515712343933</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2462,11 +2834,11 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" si="3"/>
-        <v>-0.76923076923076916</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333326</v>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f>IF(ISERROR(F4/E4-1),"N.A.",F4/E4-1)</f>
+        <v>N.A.</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="3"/>
@@ -2478,7 +2850,7 @@
         <v>0.3797296614612149</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2488,7 +2860,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -2521,7 +2893,7 @@
         <v>1.3162393162393162</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -2537,9 +2909,9 @@
         <f t="shared" si="5"/>
         <v>1.9230769230769231</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="11" t="e">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="5"/>
@@ -2551,10 +2923,10 @@
       </c>
       <c r="H13" s="11">
         <f t="shared" si="5"/>
-        <v>4.1621621621621623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>4.5294117647058822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -2570,9 +2942,9 @@
         <f t="shared" si="6"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="11" t="e">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="6"/>
@@ -2584,7 +2956,7 @@
       </c>
       <c r="H14" s="11">
         <f t="shared" si="6"/>
-        <v>3.1621621621621623</v>
+        <v>3.4411764705882355</v>
       </c>
     </row>
   </sheetData>
@@ -2601,27 +2973,29 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.23046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.15234375" style="2"/>
+    <col min="13" max="13" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>47</v>
@@ -2649,7 +3023,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
@@ -2676,7 +3050,7 @@
       </c>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>54</v>
       </c>
@@ -2719,7 +3093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>60</v>
       </c>
@@ -2747,7 +3121,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>61</v>
       </c>
@@ -2779,7 +3153,7 @@
       </c>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="16"/>
@@ -2813,7 +3187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>66</v>
       </c>
@@ -2843,7 +3217,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
@@ -2879,7 +3253,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16"/>
@@ -2911,7 +3285,7 @@
       </c>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>77</v>
       </c>
@@ -2954,7 +3328,7 @@
       </c>
       <c r="N10" s="16"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>69</v>
       </c>
@@ -2991,7 +3365,7 @@
       </c>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="31"/>
@@ -3026,7 +3400,7 @@
       </c>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>77</v>
       </c>
@@ -3058,7 +3432,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
@@ -3084,7 +3458,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>88</v>
       </c>
@@ -3112,7 +3486,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>90</v>
       </c>
@@ -3144,7 +3518,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>91</v>
       </c>
@@ -3168,7 +3542,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>71</v>
       </c>
@@ -3194,7 +3568,7 @@
       <c r="M18" s="46"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>93</v>
       </c>
@@ -3236,7 +3610,7 @@
       </c>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="33"/>
       <c r="C20" s="16"/>
@@ -3259,7 +3633,7 @@
       </c>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>98</v>
       </c>
@@ -3279,7 +3653,7 @@
       <c r="M21" s="49"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>90</v>
       </c>
@@ -3309,7 +3683,7 @@
       </c>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -3340,7 +3714,7 @@
       </c>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>71</v>
       </c>
@@ -3371,7 +3745,7 @@
       </c>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>93</v>
       </c>
@@ -3406,7 +3780,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -3435,7 +3809,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>107</v>
       </c>
@@ -3455,7 +3829,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>90</v>
       </c>
@@ -3479,7 +3853,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>91</v>
       </c>
@@ -3503,7 +3877,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3901,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>93</v>
       </c>
@@ -3562,7 +3936,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>110</v>
       </c>
@@ -3582,7 +3956,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>90</v>
       </c>
@@ -3606,7 +3980,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>91</v>
       </c>
@@ -3630,7 +4004,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>71</v>
       </c>
@@ -3654,7 +4028,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>93</v>
       </c>
@@ -3689,7 +4063,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -3711,6 +4085,11 @@
       <c r="N37" s="16"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>_xlfn.ISFORMULA(A1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3721,7 +4100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
